--- a/output/fit_clients/fit_round_487.xlsx
+++ b/output/fit_clients/fit_round_487.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2244843519.517755</v>
+        <v>1973475780.385681</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08773798591970138</v>
+        <v>0.09886612074988037</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03945392685521488</v>
+        <v>0.02907340026554378</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1122421788.385114</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1925230035.57482</v>
+        <v>2507804967.978764</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1170246252702274</v>
+        <v>0.1699669483652369</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03155871462970926</v>
+        <v>0.03768630283431574</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>962615046.2956444</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3345257966.516479</v>
+        <v>3641360035.971536</v>
       </c>
       <c r="F4" t="n">
-        <v>0.140171229481615</v>
+        <v>0.1522378701265223</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02480925147346725</v>
+        <v>0.0381452499212439</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>175</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1672628951.067994</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4204890545.955443</v>
+        <v>3965110779.197059</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1061258830198957</v>
+        <v>0.08668265748124886</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04689711389173662</v>
+        <v>0.03359369420229</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>180</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2102445263.110518</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1988897875.431241</v>
+        <v>2856992079.160089</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1250524470292759</v>
+        <v>0.1438099401769773</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03760761053655733</v>
+        <v>0.05249605209194418</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>93</v>
-      </c>
-      <c r="J6" t="n">
-        <v>994448968.5340159</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2020804402.749966</v>
+        <v>2621132428.552804</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06577039404111716</v>
+        <v>0.07704737293594234</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03406728950221184</v>
+        <v>0.04206360462267684</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>153</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1010402260.557137</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3880780632.128392</v>
+        <v>3382823726.893244</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1837734523062938</v>
+        <v>0.160144170456529</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02618102726363467</v>
+        <v>0.02453678974690615</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>155</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1940390463.63967</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1969392340.407405</v>
+        <v>1651633625.391649</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1836079060434702</v>
+        <v>0.1675232027266169</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02863455438028141</v>
+        <v>0.03551581813815986</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>984696201.0792316</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4237361939.349061</v>
+        <v>5376804404.191898</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1787011872980719</v>
+        <v>0.1822164089203178</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04253598846303087</v>
+        <v>0.04421155171356161</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>205</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2118681009.963693</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3236781998.944815</v>
+        <v>3650868099.818165</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1512084035923686</v>
+        <v>0.1490086374132863</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04780980458632034</v>
+        <v>0.03915751400248578</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>200</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1618390958.933387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2902377721.486014</v>
+        <v>2348350359.17417</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1262374637913011</v>
+        <v>0.1992262630694065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03675072327113592</v>
+        <v>0.04358077929493073</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>165</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1451188869.849671</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4700031112.902926</v>
+        <v>4469048659.276277</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07023548622557262</v>
+        <v>0.08739156653907641</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02317609327837295</v>
+        <v>0.02086214501345954</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>163</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2350015575.846845</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2464028167.319742</v>
+        <v>3818593788.07417</v>
       </c>
       <c r="F14" t="n">
-        <v>0.159967259248805</v>
+        <v>0.1767533522513575</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02679719624618046</v>
+        <v>0.04227309307980075</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>155</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1232014156.932859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1482811886.24473</v>
+        <v>1532804934.764051</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08972083744567612</v>
+        <v>0.08655404166068081</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0391751726337991</v>
+        <v>0.04475117575120055</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>741406024.7423635</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2304736000.501279</v>
+        <v>2813504736.221647</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09833546010841331</v>
+        <v>0.07743516821660196</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03866544416550677</v>
+        <v>0.04616510838859496</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>100</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1152368048.5315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3585798285.565436</v>
+        <v>3823187118.205348</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1672074859260632</v>
+        <v>0.123433409175773</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03207878253858204</v>
+        <v>0.04362311809921239</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>142</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1792899197.895699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3197032348.849587</v>
+        <v>2418839752.276058</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1177131456025127</v>
+        <v>0.1455447767088734</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0260816582405357</v>
+        <v>0.03063345370241192</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>159</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1598516190.497415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1210085747.505788</v>
+        <v>1161112190.365957</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1907611646408167</v>
+        <v>0.1762365599668761</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01734398804644409</v>
+        <v>0.01698672302192004</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>605042954.1399586</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2069487903.456246</v>
+        <v>1989804773.704422</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1155854973331571</v>
+        <v>0.1092911308053673</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02798630535980846</v>
+        <v>0.03177024972870645</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1034743970.70113</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1956084049.161712</v>
+        <v>2243515227.062777</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07124577829992507</v>
+        <v>0.07182714228932491</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03137525492235951</v>
+        <v>0.04175527919270886</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>37</v>
-      </c>
-      <c r="J21" t="n">
-        <v>978042064.7719749</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3024011801.620162</v>
+        <v>3995288180.201711</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1378006686351823</v>
+        <v>0.1099683443029782</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04663282748998326</v>
+        <v>0.05646776329104812</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1512005960.92674</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1547723563.534257</v>
+        <v>1203426189.677288</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1699796469915205</v>
+        <v>0.1754901164361085</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03551386222737855</v>
+        <v>0.04045605752998013</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>773861759.6816202</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3567177503.161031</v>
+        <v>4120598383.282559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09880269617283724</v>
+        <v>0.09655413638822978</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03178040065965635</v>
+        <v>0.03661150853514573</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>143</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1783588748.688768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>936479373.7441859</v>
+        <v>1110061704.783286</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1076203351779694</v>
+        <v>0.09419851695729969</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02250557435757398</v>
+        <v>0.02940354153143411</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>468239765.4962207</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1262227114.987359</v>
+        <v>1184530939.820894</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09942297848825341</v>
+        <v>0.1246938019304873</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0366470393937393</v>
+        <v>0.03309918755875251</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>631113593.8276865</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3410887386.45775</v>
+        <v>3274710434.226464</v>
       </c>
       <c r="F27" t="n">
-        <v>0.122349492335685</v>
+        <v>0.1436364021811692</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01953688537895235</v>
+        <v>0.01896631656651423</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1705443732.645521</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2809089424.236278</v>
+        <v>3472723276.969785</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1029474593639179</v>
+        <v>0.1010784766099259</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04483020999807968</v>
+        <v>0.03503105945452647</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>156</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1404544706.781514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4811268790.446929</v>
+        <v>4350074848.20373</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1250447705035145</v>
+        <v>0.09182754665094771</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04141935548608756</v>
+        <v>0.04202563365680573</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>215</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2405634355.864085</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1702180565.011358</v>
+        <v>1496113486.123365</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1043261407469566</v>
+        <v>0.1252662593740614</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03947817208029072</v>
+        <v>0.03378636786998114</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>851090286.0414912</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1255632896.429029</v>
+        <v>1168230679.19404</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07943170099827174</v>
+        <v>0.07049136630814712</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04827671234533212</v>
+        <v>0.0515562346972462</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>627816386.610866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1518342006.765949</v>
+        <v>1424207632.502485</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1014330788543447</v>
+        <v>0.1129734812139143</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02343720047108654</v>
+        <v>0.03764477895316428</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>759171075.5382942</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2136528209.44497</v>
+        <v>2175356937.864638</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1679159982901199</v>
+        <v>0.1282624716984435</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04740122853351291</v>
+        <v>0.06088640546691152</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>151</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1068264173.890599</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1448870321.57459</v>
+        <v>1010875158.182406</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1121218259273443</v>
+        <v>0.08322687660829614</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02017360425670088</v>
+        <v>0.02742205296498039</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>724435125.0216075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1044356081.033379</v>
+        <v>1221403210.363489</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1051432169139169</v>
+        <v>0.1172436460710799</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03796914742660867</v>
+        <v>0.04053452172560419</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>522178049.3854291</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2897465276.912227</v>
+        <v>3088385868.13303</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1091022197876299</v>
+        <v>0.1466954313866731</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01877580060126539</v>
+        <v>0.02809511782950664</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>122</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1448732628.627879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2918786287.027483</v>
+        <v>1954038560.327541</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1066597179239002</v>
+        <v>0.1006049122008226</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04081893064101875</v>
+        <v>0.02702427185418235</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>132</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1459393297.184955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1734224559.461941</v>
+        <v>1852686679.300658</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09921979292535489</v>
+        <v>0.1115567839496969</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03768038170116007</v>
+        <v>0.03564817072133492</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>867112295.9305494</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1766832058.396352</v>
+        <v>1927224076.110152</v>
       </c>
       <c r="F39" t="n">
-        <v>0.18104121843364</v>
+        <v>0.1317213613636034</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02398560102838728</v>
+        <v>0.02230741956672655</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>883416059.1446762</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1737937763.71277</v>
+        <v>1443067218.338319</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1398125291003745</v>
+        <v>0.1603712982951008</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03994610594314529</v>
+        <v>0.05520609834644442</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>868968788.4990659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2750234926.45038</v>
+        <v>2809384384.4221</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1615305547319853</v>
+        <v>0.1195179280309188</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03461299178072257</v>
+        <v>0.03764055263610156</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>118</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1375117464.028939</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3342363087.656304</v>
+        <v>3123996573.378571</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1081233430115767</v>
+        <v>0.09620465121236925</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03084977522415032</v>
+        <v>0.04318081137094938</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>159</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1671181527.860105</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2649607576.022109</v>
+        <v>1911428784.438727</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1331704242885396</v>
+        <v>0.1817897194645966</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01637658794821353</v>
+        <v>0.02154688870113867</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>168</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1324803821.651369</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1563989167.290501</v>
+        <v>1786869145.72203</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07274025401643226</v>
+        <v>0.08641355880642537</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03297503025763705</v>
+        <v>0.03130683755028425</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>781994603.0118214</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1664622512.900087</v>
+        <v>2392298938.223535</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1221962804930704</v>
+        <v>0.1829311428858209</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04754966546991651</v>
+        <v>0.05322764084054332</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>832311213.5246511</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5650546382.658193</v>
+        <v>4193782431.414598</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1350911556097895</v>
+        <v>0.1564437391879664</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05051981806867863</v>
+        <v>0.06093120848405978</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>173</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2825273255.372023</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3466054583.127651</v>
+        <v>3225323302.457934</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1470365349864566</v>
+        <v>0.1939967173527679</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05013164854746135</v>
+        <v>0.04140632517468407</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>131</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1733027260.472081</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3795491608.365191</v>
+        <v>3480537319.429546</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08191018686721187</v>
+        <v>0.08173987960449848</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03309967550519952</v>
+        <v>0.02526898740365218</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>159</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1897745850.447139</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1429143856.21699</v>
+        <v>1827730400.619234</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1614720937139933</v>
+        <v>0.1702853304525769</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04013735002403378</v>
+        <v>0.03994617669330291</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>714571971.1785159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4008785651.826467</v>
+        <v>3167405937.736704</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1364583964605044</v>
+        <v>0.1368475635603113</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04946618675495659</v>
+        <v>0.04601270570710269</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>166</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2004392813.992182</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1543859361.293304</v>
+        <v>1486411505.789814</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1537164152012195</v>
+        <v>0.1190119322830713</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04730415725873545</v>
+        <v>0.05094217562572572</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>771929676.4817351</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4317465616.492636</v>
+        <v>5295695018.732824</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09355790467752723</v>
+        <v>0.1142565581121329</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04819805629791688</v>
+        <v>0.05418644560932297</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>200</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2158732846.060901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3173879562.577881</v>
+        <v>2390363000.637376</v>
       </c>
       <c r="F53" t="n">
-        <v>0.197174880954956</v>
+        <v>0.1958831361066474</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02452058239721086</v>
+        <v>0.02676922557887821</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>140</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1586939801.744087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4901206395.371634</v>
+        <v>3911655661.379083</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1698272325950449</v>
+        <v>0.1676917309094589</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04633393409163093</v>
+        <v>0.03770336039497118</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>159</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2450603332.56366</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4483949232.835746</v>
+        <v>3187212936.764954</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1803611224902266</v>
+        <v>0.1844408072495472</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02530248466377686</v>
+        <v>0.02279154151519471</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2241974612.684909</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1783227203.955969</v>
+        <v>1715611001.913791</v>
       </c>
       <c r="F56" t="n">
-        <v>0.145040626012119</v>
+        <v>0.1550991328013062</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05694838744015821</v>
+        <v>0.0404147612301178</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>891613602.3017941</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4061233256.620082</v>
+        <v>3786091514.024737</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1561116723047636</v>
+        <v>0.1151259623116523</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02331961855897234</v>
+        <v>0.02486793932356418</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>154</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2030616721.840659</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1801338412.042289</v>
+        <v>1723997854.02187</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1493087801847388</v>
+        <v>0.1418672115519453</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03678222355349659</v>
+        <v>0.03145575286825866</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>900669209.6958934</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3585953373.637102</v>
+        <v>3689845742.311639</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1291726717535207</v>
+        <v>0.1026270908514758</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03742726187646454</v>
+        <v>0.04652714018111103</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1792976682.76761</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3241255988.264714</v>
+        <v>2393703482.680047</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1875316986601722</v>
+        <v>0.1323585717298031</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02827391106671195</v>
+        <v>0.02445417175120861</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>156</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1620628089.812283</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2796820159.988359</v>
+        <v>3278434575.28591</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1708491853328977</v>
+        <v>0.1258902332739869</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02421871737214099</v>
+        <v>0.0231069976245938</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>168</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1398410079.644556</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1390251938.758121</v>
+        <v>1649188041.620334</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1667274240132438</v>
+        <v>0.1741450838489418</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03007562924745332</v>
+        <v>0.04828569669980542</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>695125936.0086272</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5211990722.625284</v>
+        <v>3864079246.066109</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07312749886910715</v>
+        <v>0.09357198773093202</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03402258467553115</v>
+        <v>0.03128572139938448</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>139</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2605995369.642016</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3891397514.909873</v>
+        <v>4553992077.160093</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1288280924213464</v>
+        <v>0.1877406520846814</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03553901032891398</v>
+        <v>0.03207804285332399</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>151</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1945698785.70038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5500184920.629239</v>
+        <v>5927496532.288908</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1372669269420022</v>
+        <v>0.111169935470813</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02143353619058241</v>
+        <v>0.02032615429279811</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>174</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2750092389.403408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5348264731.408095</v>
+        <v>5710460884.133595</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1490263121932233</v>
+        <v>0.1150138746019134</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03951489680074541</v>
+        <v>0.04342251689034673</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>141</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2674132411.512599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3245022584.387973</v>
+        <v>2379835363.545253</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07574769067774144</v>
+        <v>0.1003921070930535</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04656439333093128</v>
+        <v>0.03642841651770519</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>156</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1622511289.736182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5773698722.168549</v>
+        <v>5581923240.497584</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1396198807976693</v>
+        <v>0.0996202391231102</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03899510549149043</v>
+        <v>0.03892204749461049</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>156</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2886849464.383102</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2036860239.830848</v>
+        <v>1578922264.915</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1705244099432213</v>
+        <v>0.1291974108034654</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04576006623978814</v>
+        <v>0.05537288305790295</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1018430129.686619</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3238570859.905631</v>
+        <v>3109740514.828143</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07728519779386472</v>
+        <v>0.07591515741148455</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03216123507512818</v>
+        <v>0.03432083825988607</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>139</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1619285422.563128</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4691331071.18894</v>
+        <v>3503704934.172978</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1219450041229125</v>
+        <v>0.1161649202219223</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03008999916165627</v>
+        <v>0.02729547246998474</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>177</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2345665618.263636</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1428729436.954568</v>
+        <v>1548610950.256878</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06631495167188671</v>
+        <v>0.07212824418457524</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0432697115470442</v>
+        <v>0.03670023908311518</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>714364756.9883585</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3252002143.879022</v>
+        <v>3182165804.47036</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09764272147601408</v>
+        <v>0.07341902062348431</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03182046492659584</v>
+        <v>0.04756985067910618</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>184</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1626001044.871209</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3016719031.805815</v>
+        <v>2870469131.848779</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1580570302208557</v>
+        <v>0.1599227571913098</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02408710276202851</v>
+        <v>0.03126587335028393</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>166</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1508359579.876448</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1727801058.850297</v>
+        <v>1959360782.013457</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1213215414343898</v>
+        <v>0.1363592796214471</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02453328449442043</v>
+        <v>0.03362141095994155</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>863900519.0979029</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3912843884.476035</v>
+        <v>5267921605.097852</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08688048956336478</v>
+        <v>0.0844404559652923</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02948814969638461</v>
+        <v>0.02463243938342916</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1956421923.323831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1767791442.29622</v>
+        <v>1592803739.889588</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1490442853282757</v>
+        <v>0.1753939138790456</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0264029068740764</v>
+        <v>0.02022009383416455</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>883895748.3776431</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3711649042.208078</v>
+        <v>3757683602.654962</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1107196414128887</v>
+        <v>0.1230179720823332</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05366591379314287</v>
+        <v>0.05148615307269861</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>169</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1855824507.502415</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1320106424.165233</v>
+        <v>1190625719.942835</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1285270956855764</v>
+        <v>0.1081650712842404</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03006065454516824</v>
+        <v>0.03024607104249936</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>660053214.8422961</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4114253602.363188</v>
+        <v>4249146791.485943</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1035518309877971</v>
+        <v>0.1027124543192811</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02439624135200085</v>
+        <v>0.03489871289828068</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2057126806.372948</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3717270616.978675</v>
+        <v>3276924725.762747</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1020647871915424</v>
+        <v>0.1107132511222532</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02474558325656075</v>
+        <v>0.02508122879105774</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1858635261.211253</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3462159860.185603</v>
+        <v>3443352423.440704</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2087449173377127</v>
+        <v>0.1956513069155913</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02933691832908943</v>
+        <v>0.02808676697879983</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>172</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1731079999.881413</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2466186070.395815</v>
+        <v>1829957060.653815</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1272238763364057</v>
+        <v>0.09623370044590732</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04097521673274341</v>
+        <v>0.03372357304254071</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1233093078.572122</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2323584844.622881</v>
+        <v>2356649523.958553</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1097128572681112</v>
+        <v>0.1034990041419661</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05096998869800574</v>
+        <v>0.04939679569832299</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1161792379.95944</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2438820591.939623</v>
+        <v>3328452057.543543</v>
       </c>
       <c r="F85" t="n">
-        <v>0.145076168033006</v>
+        <v>0.1247113149664747</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05088399216487047</v>
+        <v>0.04009850599778525</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>182</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1219410294.218071</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1744426630.685429</v>
+        <v>1780267347.506885</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1085035095032816</v>
+        <v>0.1690882530641119</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02116062362991813</v>
+        <v>0.02179325461215376</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>872213307.4571906</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1239583023.116896</v>
+        <v>1247349768.658818</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1484690364687261</v>
+        <v>0.1302835908018732</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02991980910714195</v>
+        <v>0.03621505766384588</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>619791577.302061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2806642077.90571</v>
+        <v>2344176551.017919</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1522516910863644</v>
+        <v>0.1729462714455338</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03277162176107058</v>
+        <v>0.03390789820205706</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>193</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1403321050.312459</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2720892324.270435</v>
+        <v>2560312477.30934</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1538306458564124</v>
+        <v>0.1589824562337169</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03198902527561583</v>
+        <v>0.03786108038121062</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>165</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1360446220.719702</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1535105219.601056</v>
+        <v>1381483515.001505</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1199340046060539</v>
+        <v>0.110761560924422</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04352377459989369</v>
+        <v>0.04012899426264571</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>767552594.9616421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1507846462.923666</v>
+        <v>1837124130.048205</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1692117482443078</v>
+        <v>0.1885909823807712</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05065872304833243</v>
+        <v>0.04946752333025294</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>753923269.356269</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2946675817.329521</v>
+        <v>2449359782.592905</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0781491015238447</v>
+        <v>0.09377011239991724</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04150260237902068</v>
+        <v>0.03339462077237688</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>132</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1473337926.357862</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4852217179.352523</v>
+        <v>3142858524.84194</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08879230710172806</v>
+        <v>0.118317718103453</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04531168124316055</v>
+        <v>0.04708207493022409</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>150</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2426108535.208294</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2165509195.292525</v>
+        <v>1670796911.410027</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1139194429060332</v>
+        <v>0.1454351773987114</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03374811418937691</v>
+        <v>0.0337894455876997</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1082754617.57113</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2244773066.583411</v>
+        <v>2700343696.643559</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1030528319913404</v>
+        <v>0.1203151034760729</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04966262040165045</v>
+        <v>0.03801960440118355</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1122386587.949659</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1655570689.474773</v>
+        <v>1782152324.544646</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1323745228181713</v>
+        <v>0.1388651010397212</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03312667273006015</v>
+        <v>0.04701860041841589</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>827785368.5066417</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4990337772.476871</v>
+        <v>3886598942.320172</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1630352956387612</v>
+        <v>0.1263082537728448</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02504446235419894</v>
+        <v>0.02460977325343446</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>158</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2495169022.279463</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3658384648.5629</v>
+        <v>3187610934.033731</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1033689052640164</v>
+        <v>0.1235143718294751</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02689862723465487</v>
+        <v>0.02686079040141972</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>132</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1829192353.676603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2307009019.798748</v>
+        <v>2653144060.445192</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1037598653192063</v>
+        <v>0.09978591340312673</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02276113910808473</v>
+        <v>0.02921125733322799</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>155</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1153504445.63603</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4236039294.229007</v>
+        <v>4809877189.013525</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1532097214174503</v>
+        <v>0.1695028603621027</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02279308775541307</v>
+        <v>0.02775635676060351</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>149</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2118019736.664093</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3315677799.861464</v>
+        <v>2650647308.786165</v>
       </c>
       <c r="F101" t="n">
-        <v>0.15662978882832</v>
+        <v>0.1481753061581715</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05481052649594105</v>
+        <v>0.04396737193219339</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>198</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1657839030.712868</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_487.xlsx
+++ b/output/fit_clients/fit_round_487.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1973475780.385681</v>
+        <v>1539231006.443907</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09886612074988037</v>
+        <v>0.08080178120889932</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02907340026554378</v>
+        <v>0.03110400060593681</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2507804967.978764</v>
+        <v>2148288348.708644</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1699669483652369</v>
+        <v>0.1319344490940554</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03768630283431574</v>
+        <v>0.03367274100786433</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3641360035.971536</v>
+        <v>5038820677.807289</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1522378701265223</v>
+        <v>0.1190484631156603</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0381452499212439</v>
+        <v>0.02647639921668858</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3965110779.197059</v>
+        <v>2814024942.298709</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08668265748124886</v>
+        <v>0.1066028629280463</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03359369420229</v>
+        <v>0.03391364100923674</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2856992079.160089</v>
+        <v>1957281320.077686</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1438099401769773</v>
+        <v>0.1024286085131576</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05249605209194418</v>
+        <v>0.05319254753428978</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2621132428.552804</v>
+        <v>2366168568.125983</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07704737293594234</v>
+        <v>0.08381483844872527</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04206360462267684</v>
+        <v>0.04672406474571006</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3382823726.893244</v>
+        <v>2686154099.451312</v>
       </c>
       <c r="F8" t="n">
-        <v>0.160144170456529</v>
+        <v>0.209823498252277</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02453678974690615</v>
+        <v>0.02861918895277004</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1651633625.391649</v>
+        <v>2075593168.91076</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1675232027266169</v>
+        <v>0.1726757522714939</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03551581813815986</v>
+        <v>0.03148367120158206</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5376804404.191898</v>
+        <v>4378262305.789844</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1822164089203178</v>
+        <v>0.202834157448867</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04421155171356161</v>
+        <v>0.04499263697367202</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3650868099.818165</v>
+        <v>3921233070.647298</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1490086374132863</v>
+        <v>0.1216157523800188</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03915751400248578</v>
+        <v>0.04907779897832139</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2348350359.17417</v>
+        <v>3034781342.647476</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1992262630694065</v>
+        <v>0.1559398808571139</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04358077929493073</v>
+        <v>0.03975261702730687</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4469048659.276277</v>
+        <v>4543642651.851563</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08739156653907641</v>
+        <v>0.07296721206145035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02086214501345954</v>
+        <v>0.03088345713449731</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3818593788.07417</v>
+        <v>2398700354.268497</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1767533522513575</v>
+        <v>0.1407275434094003</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04227309307980075</v>
+        <v>0.0350617503277403</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1532804934.764051</v>
+        <v>1118755064.053208</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08655404166068081</v>
+        <v>0.09437654149680536</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04475117575120055</v>
+        <v>0.04911662405418361</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2813504736.221647</v>
+        <v>2803469598.544224</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07743516821660196</v>
+        <v>0.1122557753286686</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04616510838859496</v>
+        <v>0.04017151288771343</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3823187118.205348</v>
+        <v>4386875535.008409</v>
       </c>
       <c r="F17" t="n">
-        <v>0.123433409175773</v>
+        <v>0.1435587870936018</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04362311809921239</v>
+        <v>0.048487496154099</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2418839752.276058</v>
+        <v>3312938465.949657</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1455447767088734</v>
+        <v>0.1795005462853052</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03063345370241192</v>
+        <v>0.02383008984129114</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1161112190.365957</v>
+        <v>1266313562.041309</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1762365599668761</v>
+        <v>0.1776985511302971</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01698672302192004</v>
+        <v>0.02667618370355704</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1989804773.704422</v>
+        <v>2522309842.22094</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1092911308053673</v>
+        <v>0.1234673998761007</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03177024972870645</v>
+        <v>0.03097315421372714</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2243515227.062777</v>
+        <v>2518061876.541999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07182714228932491</v>
+        <v>0.102001522150435</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04175527919270886</v>
+        <v>0.04184640720432723</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3995288180.201711</v>
+        <v>2843267220.420422</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1099683443029782</v>
+        <v>0.09276085263365039</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05646776329104812</v>
+        <v>0.04265280568175738</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1203426189.677288</v>
+        <v>1047283234.181227</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1754901164361085</v>
+        <v>0.1775258339858366</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04045605752998013</v>
+        <v>0.04786310630767102</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4120598383.282559</v>
+        <v>3327807997.34206</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09655413638822978</v>
+        <v>0.1449921863099125</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03661150853514573</v>
+        <v>0.0316624947853687</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1110061704.783286</v>
+        <v>1245616752.878574</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09419851695729969</v>
+        <v>0.1132589926076898</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02940354153143411</v>
+        <v>0.02071614526194493</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1184530939.820894</v>
+        <v>1186750438.749286</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1246938019304873</v>
+        <v>0.1060564839707635</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03309918755875251</v>
+        <v>0.02616749486306532</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3274710434.226464</v>
+        <v>4094025867.168009</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1436364021811692</v>
+        <v>0.148428063114344</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01896631656651423</v>
+        <v>0.02422078456239771</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3472723276.969785</v>
+        <v>2847126730.475136</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1010784766099259</v>
+        <v>0.09844634528023408</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03503105945452647</v>
+        <v>0.04342046248610745</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4350074848.20373</v>
+        <v>5191214814.62386</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09182754665094771</v>
+        <v>0.1426019214989686</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04202563365680573</v>
+        <v>0.04279262743497639</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1496113486.123365</v>
+        <v>2374767208.743492</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1252662593740614</v>
+        <v>0.1330687463751719</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03378636786998114</v>
+        <v>0.03874307532550846</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1168230679.19404</v>
+        <v>1498456358.275736</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07049136630814712</v>
+        <v>0.1028273959400878</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0515562346972462</v>
+        <v>0.03248430315933876</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1424207632.502485</v>
+        <v>1337846777.147114</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1129734812139143</v>
+        <v>0.1140084186364642</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03764477895316428</v>
+        <v>0.02674087476855907</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2175356937.864638</v>
+        <v>2615687511.751574</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1282624716984435</v>
+        <v>0.1595333240166887</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06088640546691152</v>
+        <v>0.04737411147453045</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1010875158.182406</v>
+        <v>1307123887.244963</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08322687660829614</v>
+        <v>0.07528599458060505</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02742205296498039</v>
+        <v>0.02219800597207117</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1221403210.363489</v>
+        <v>1344611866.201434</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1172436460710799</v>
+        <v>0.1070522141142641</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04053452172560419</v>
+        <v>0.03234227040461878</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3088385868.13303</v>
+        <v>2791844710.458316</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1466954313866731</v>
+        <v>0.1513809802632981</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02809511782950664</v>
+        <v>0.02610438905735408</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1954038560.327541</v>
+        <v>2508787182.388014</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1006049122008226</v>
+        <v>0.1040914600438776</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02702427185418235</v>
+        <v>0.03584220732478648</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1852686679.300658</v>
+        <v>1970309302.368903</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1115567839496969</v>
+        <v>0.1137010017234091</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03564817072133492</v>
+        <v>0.03203813308433611</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1927224076.110152</v>
+        <v>2071982296.567909</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1317213613636034</v>
+        <v>0.1581324373372826</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02230741956672655</v>
+        <v>0.03066832247682563</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1443067218.338319</v>
+        <v>1509446100.524956</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1603712982951008</v>
+        <v>0.1148651602379633</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05520609834644442</v>
+        <v>0.05713071512873845</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2809384384.4221</v>
+        <v>2211720195.713828</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1195179280309188</v>
+        <v>0.1405798525972047</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03764055263610156</v>
+        <v>0.03691117980592289</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3123996573.378571</v>
+        <v>3430381356.754141</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09620465121236925</v>
+        <v>0.1156432263129319</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04318081137094938</v>
+        <v>0.0295195458189506</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1911428784.438727</v>
+        <v>1970071150.484998</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1817897194645966</v>
+        <v>0.1918350503281044</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02154688870113867</v>
+        <v>0.01615172740062057</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1786869145.72203</v>
+        <v>1559673081.210206</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08641355880642537</v>
+        <v>0.09142447995588605</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03130683755028425</v>
+        <v>0.03460007315124313</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2392298938.223535</v>
+        <v>2074502279.796285</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1829311428858209</v>
+        <v>0.172019067292405</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05322764084054332</v>
+        <v>0.03817791956815254</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4193782431.414598</v>
+        <v>5280658108.928076</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1564437391879664</v>
+        <v>0.1189666051496894</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06093120848405978</v>
+        <v>0.0560458366550518</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3225323302.457934</v>
+        <v>3997456310.852921</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1939967173527679</v>
+        <v>0.1944248126768506</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04140632517468407</v>
+        <v>0.05520789093052671</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3480537319.429546</v>
+        <v>3204903907.236794</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08173987960449848</v>
+        <v>0.06986689730808739</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02526898740365218</v>
+        <v>0.02551006887180543</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1827730400.619234</v>
+        <v>1683934338.133729</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1702853304525769</v>
+        <v>0.1875883747847992</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03994617669330291</v>
+        <v>0.03705747357642814</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3167405937.736704</v>
+        <v>4218128497.328876</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1368475635603113</v>
+        <v>0.1237862284779358</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04601270570710269</v>
+        <v>0.05275477484380108</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1486411505.789814</v>
+        <v>1040947253.656303</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1190119322830713</v>
+        <v>0.1467064153767111</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05094217562572572</v>
+        <v>0.05314362204032217</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5295695018.732824</v>
+        <v>5137945124.579605</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1142565581121329</v>
+        <v>0.132682039550673</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05418644560932297</v>
+        <v>0.04991904971677631</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2390363000.637376</v>
+        <v>2582165799.922376</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1958831361066474</v>
+        <v>0.1945198795415441</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02676922557887821</v>
+        <v>0.02246277057826685</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3911655661.379083</v>
+        <v>3369447004.259891</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1676917309094589</v>
+        <v>0.1320724183425917</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03770336039497118</v>
+        <v>0.04934774545888776</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3187212936.764954</v>
+        <v>3871251524.459529</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1844408072495472</v>
+        <v>0.1385679740266983</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02279154151519471</v>
+        <v>0.02726704937978847</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1715611001.913791</v>
+        <v>1358466388.208324</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1550991328013062</v>
+        <v>0.1301038814003544</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0404147612301178</v>
+        <v>0.05184126862649386</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3786091514.024737</v>
+        <v>2760986038.053287</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1151259623116523</v>
+        <v>0.1612451763659879</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02486793932356418</v>
+        <v>0.02695468008695332</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1723997854.02187</v>
+        <v>1210650341.718318</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1418672115519453</v>
+        <v>0.1285045636680975</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03145575286825866</v>
+        <v>0.03887341893759082</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3689845742.311639</v>
+        <v>4649053823.269117</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1026270908514758</v>
+        <v>0.08293363377227041</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04652714018111103</v>
+        <v>0.03109198642311942</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2393703482.680047</v>
+        <v>2465847190.566522</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1323585717298031</v>
+        <v>0.1864310133335426</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02445417175120861</v>
+        <v>0.02891329961473223</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3278434575.28591</v>
+        <v>2829568442.024321</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1258902332739869</v>
+        <v>0.1526658552859088</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0231069976245938</v>
+        <v>0.02807857857671815</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1649188041.620334</v>
+        <v>1625217497.073479</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1741450838489418</v>
+        <v>0.1473986594415883</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04828569669980542</v>
+        <v>0.03652590368058382</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3864079246.066109</v>
+        <v>5095644254.114819</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09357198773093202</v>
+        <v>0.06914602232690607</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03128572139938448</v>
+        <v>0.04701658048495574</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4553992077.160093</v>
+        <v>5282905371.506733</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1877406520846814</v>
+        <v>0.1279587356681139</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03207804285332399</v>
+        <v>0.02862750888262674</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5927496532.288908</v>
+        <v>5750635759.204648</v>
       </c>
       <c r="F65" t="n">
-        <v>0.111169935470813</v>
+        <v>0.1367613700909399</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02032615429279811</v>
+        <v>0.01993171247420144</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5710460884.133595</v>
+        <v>5490187245.672452</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1150138746019134</v>
+        <v>0.1295747169306221</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04342251689034673</v>
+        <v>0.0342632289046208</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2379835363.545253</v>
+        <v>2963667677.620298</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1003921070930535</v>
+        <v>0.07895610574138674</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03642841651770519</v>
+        <v>0.04883262318676018</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5581923240.497584</v>
+        <v>3713712633.984406</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0996202391231102</v>
+        <v>0.1503759523180196</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03892204749461049</v>
+        <v>0.04693372851893414</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1578922264.915</v>
+        <v>2430514471.519115</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1291974108034654</v>
+        <v>0.1817706226754234</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05537288305790295</v>
+        <v>0.04627971321511827</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3109740514.828143</v>
+        <v>2350162526.567826</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07591515741148455</v>
+        <v>0.07271873463834697</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03432083825988607</v>
+        <v>0.04033130784259251</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3503704934.172978</v>
+        <v>5655735836.36473</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1161649202219223</v>
+        <v>0.1503062389289438</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02729547246998474</v>
+        <v>0.02491217421860841</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1548610950.256878</v>
+        <v>1612823956.971747</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07212824418457524</v>
+        <v>0.07375040744353314</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03670023908311518</v>
+        <v>0.04468956569217562</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3182165804.47036</v>
+        <v>2568257231.136879</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07341902062348431</v>
+        <v>0.08716627254919285</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04756985067910618</v>
+        <v>0.04942610323225918</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2870469131.848779</v>
+        <v>3991856258.630185</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1599227571913098</v>
+        <v>0.1675971155611859</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03126587335028393</v>
+        <v>0.03138980531691443</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1959360782.013457</v>
+        <v>1808713310.937262</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1363592796214471</v>
+        <v>0.1463561140161624</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03362141095994155</v>
+        <v>0.02658526435284224</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5267921605.097852</v>
+        <v>5103140524.317768</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0844404559652923</v>
+        <v>0.08319048607616235</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02463243938342916</v>
+        <v>0.02810515546266771</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1592803739.889588</v>
+        <v>1859360439.380646</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1753939138790456</v>
+        <v>0.1647979029538529</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02022009383416455</v>
+        <v>0.01957874775575399</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3757683602.654962</v>
+        <v>3511057402.787075</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1230179720823332</v>
+        <v>0.1183830837847992</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05148615307269861</v>
+        <v>0.05668757627444834</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1190625719.942835</v>
+        <v>1873403914.393352</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1081650712842404</v>
+        <v>0.1236767964064542</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03024607104249936</v>
+        <v>0.03583683408816582</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4249146791.485943</v>
+        <v>4470552854.559576</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1027124543192811</v>
+        <v>0.06800654182427084</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03489871289828068</v>
+        <v>0.02686346242543008</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3276924725.762747</v>
+        <v>4316137665.447263</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1107132511222532</v>
+        <v>0.1000620087332857</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02508122879105774</v>
+        <v>0.02150284649408238</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3443352423.440704</v>
+        <v>5012971723.467546</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1956513069155913</v>
+        <v>0.1449743610314485</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02808676697879983</v>
+        <v>0.02226848078509483</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1829957060.653815</v>
+        <v>2053168304.57725</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09623370044590732</v>
+        <v>0.1223845484136156</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03372357304254071</v>
+        <v>0.02898497455134354</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2356649523.958553</v>
+        <v>2154872862.759151</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1034990041419661</v>
+        <v>0.09986783217005016</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04939679569832299</v>
+        <v>0.03549958261634929</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3328452057.543543</v>
+        <v>3636900033.579509</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1247113149664747</v>
+        <v>0.1380660769526849</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04009850599778525</v>
+        <v>0.03818779402708799</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1780267347.506885</v>
+        <v>2547791332.34817</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1690882530641119</v>
+        <v>0.1615989124249566</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02179325461215376</v>
+        <v>0.02260982031581511</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1247349768.658818</v>
+        <v>954667669.9373955</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1302835908018732</v>
+        <v>0.1379894637898633</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03621505766384588</v>
+        <v>0.02817383332928641</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2344176551.017919</v>
+        <v>2838468855.387076</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1729462714455338</v>
+        <v>0.1597560091992477</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03390789820205706</v>
+        <v>0.02743044935692373</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2560312477.30934</v>
+        <v>2950493111.351692</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1589824562337169</v>
+        <v>0.1412628967711416</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03786108038121062</v>
+        <v>0.02890040133799321</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1381483515.001505</v>
+        <v>1834705775.885852</v>
       </c>
       <c r="F90" t="n">
-        <v>0.110761560924422</v>
+        <v>0.1170030807349653</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04012899426264571</v>
+        <v>0.04562879517002375</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1837124130.048205</v>
+        <v>1760515154.06023</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1885909823807712</v>
+        <v>0.1284564581395442</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04946752333025294</v>
+        <v>0.04798083976796104</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2449359782.592905</v>
+        <v>2708884163.408267</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09377011239991724</v>
+        <v>0.08995659738685288</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03339462077237688</v>
+        <v>0.04207982377019481</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3142858524.84194</v>
+        <v>3956898558.180263</v>
       </c>
       <c r="F93" t="n">
-        <v>0.118317718103453</v>
+        <v>0.1149604806789339</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04708207493022409</v>
+        <v>0.03400961387518725</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1670796911.410027</v>
+        <v>2383162589.398142</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1454351773987114</v>
+        <v>0.1148772228381643</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0337894455876997</v>
+        <v>0.0428588248074932</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2700343696.643559</v>
+        <v>2307501892.410561</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1203151034760729</v>
+        <v>0.1087781746953559</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03801960440118355</v>
+        <v>0.0483584321815884</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1782152324.544646</v>
+        <v>2025013752.999706</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1388651010397212</v>
+        <v>0.1181369416661444</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04701860041841589</v>
+        <v>0.02978779644308286</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3886598942.320172</v>
+        <v>3749104369.172695</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1263082537728448</v>
+        <v>0.165042531777415</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02460977325343446</v>
+        <v>0.02573382092919401</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3187610934.033731</v>
+        <v>2943962985.302754</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1235143718294751</v>
+        <v>0.1220496965746265</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02686079040141972</v>
+        <v>0.02956354318632291</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2653144060.445192</v>
+        <v>2530146113.319936</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09978591340312673</v>
+        <v>0.1416555579444523</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02921125733322799</v>
+        <v>0.02219530059377585</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4809877189.013525</v>
+        <v>3031471955.215277</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1695028603621027</v>
+        <v>0.1634020232771064</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02775635676060351</v>
+        <v>0.02563268878676341</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2650647308.786165</v>
+        <v>2177771277.621717</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1481753061581715</v>
+        <v>0.2068505672464331</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04396737193219339</v>
+        <v>0.03575050709560953</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_487.xlsx
+++ b/output/fit_clients/fit_round_487.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1539231006.443907</v>
+        <v>1920051079.421782</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08080178120889932</v>
+        <v>0.1145761946524417</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03110400060593681</v>
+        <v>0.04041544743075171</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2148288348.708644</v>
+        <v>1679797380.964734</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1319344490940554</v>
+        <v>0.151805912883768</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03367274100786433</v>
+        <v>0.04432089132398267</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5038820677.807289</v>
+        <v>3615132601.903641</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1190484631156603</v>
+        <v>0.1049737469747679</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02647639921668858</v>
+        <v>0.02729134789601733</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>245</v>
+      </c>
+      <c r="J4" t="n">
+        <v>487</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2814024942.298709</v>
+        <v>2965145749.779152</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1066028629280463</v>
+        <v>0.09894773580063868</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03391364100923674</v>
+        <v>0.03275657455362412</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>207</v>
+      </c>
+      <c r="J5" t="n">
+        <v>486</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14.84893069605993</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1957281320.077686</v>
+        <v>2044501210.224132</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1024286085131576</v>
+        <v>0.1458800344327397</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05319254753428978</v>
+        <v>0.04641797813326572</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2366168568.125983</v>
+        <v>2514974299.396408</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08381483844872527</v>
+        <v>0.07836677917690558</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04672406474571006</v>
+        <v>0.03511288594032432</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2686154099.451312</v>
+        <v>2923686583.871345</v>
       </c>
       <c r="F8" t="n">
-        <v>0.209823498252277</v>
+        <v>0.1552971899707803</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02861918895277004</v>
+        <v>0.03267331369019437</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>136</v>
+      </c>
+      <c r="J8" t="n">
+        <v>485</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2075593168.91076</v>
+        <v>1535072483.859335</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1726757522714939</v>
+        <v>0.1236309633421807</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03148367120158206</v>
+        <v>0.03339064720994312</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4378262305.789844</v>
+        <v>5529104409.27423</v>
       </c>
       <c r="F10" t="n">
-        <v>0.202834157448867</v>
+        <v>0.1631888221688917</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04499263697367202</v>
+        <v>0.03470263348189434</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>369</v>
+      </c>
+      <c r="J10" t="n">
+        <v>486</v>
+      </c>
+      <c r="K10" t="n">
+        <v>26.86175918516127</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3921233070.647298</v>
+        <v>2930000308.806222</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1216157523800188</v>
+        <v>0.1296956074879216</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04907779897832139</v>
+        <v>0.04195921946243454</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>204</v>
+      </c>
+      <c r="J11" t="n">
+        <v>485</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3034781342.647476</v>
+        <v>2002850980.705072</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1559398808571139</v>
+        <v>0.1257799429526637</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03975261702730687</v>
+        <v>0.04232134567179373</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4543642651.851563</v>
+        <v>3802754321.505025</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07296721206145035</v>
+        <v>0.1012496795776077</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03088345713449731</v>
+        <v>0.02393249867839674</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>252</v>
+      </c>
+      <c r="J13" t="n">
+        <v>486</v>
+      </c>
+      <c r="K13" t="n">
+        <v>22.26344891628814</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2398700354.268497</v>
+        <v>3695417401.831134</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1407275434094003</v>
+        <v>0.1459617855031577</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0350617503277403</v>
+        <v>0.03626592047730873</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>112</v>
+      </c>
+      <c r="J14" t="n">
+        <v>487</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1118755064.053208</v>
+        <v>1110048387.809949</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09437654149680536</v>
+        <v>0.07780912077878867</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04911662405418361</v>
+        <v>0.03271175799940058</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2803469598.544224</v>
+        <v>2363023105.872794</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1122557753286686</v>
+        <v>0.09865274128703395</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04017151288771343</v>
+        <v>0.04518453080470069</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4386875535.008409</v>
+        <v>4246090685.350838</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1435587870936018</v>
+        <v>0.1309130336692118</v>
       </c>
       <c r="G17" t="n">
-        <v>0.048487496154099</v>
+        <v>0.05228807824824849</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>237</v>
+      </c>
+      <c r="J17" t="n">
+        <v>487</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3312938465.949657</v>
+        <v>3529878899.975812</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1795005462853052</v>
+        <v>0.1437572177667128</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02383008984129114</v>
+        <v>0.02470667421765001</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>130</v>
+      </c>
+      <c r="J18" t="n">
+        <v>480</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1266313562.041309</v>
+        <v>1124223714.861513</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1776985511302971</v>
+        <v>0.162565110198366</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02667618370355704</v>
+        <v>0.02146722078937214</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2522309842.22094</v>
+        <v>2325022954.585841</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1234673998761007</v>
+        <v>0.124939382607262</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03097315421372714</v>
+        <v>0.02921949615120516</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2518061876.541999</v>
+        <v>1981174763.362741</v>
       </c>
       <c r="F21" t="n">
-        <v>0.102001522150435</v>
+        <v>0.09876932905633623</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04184640720432723</v>
+        <v>0.04596150489216107</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2843267220.420422</v>
+        <v>2742016452.454182</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09276085263365039</v>
+        <v>0.1360767927351655</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04265280568175738</v>
+        <v>0.04997540659587998</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>143</v>
+      </c>
+      <c r="J22" t="n">
+        <v>486</v>
+      </c>
+      <c r="K22" t="n">
+        <v>16.19920294279619</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1047283234.181227</v>
+        <v>1451903505.529116</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1775258339858366</v>
+        <v>0.158165381390328</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04786310630767102</v>
+        <v>0.03977289759092903</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3327807997.34206</v>
+        <v>2876893914.316814</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1449921863099125</v>
+        <v>0.1182287453175251</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0316624947853687</v>
+        <v>0.02947780471893146</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>154</v>
+      </c>
+      <c r="J24" t="n">
+        <v>484</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1245616752.878574</v>
+        <v>1219317378.211038</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1132589926076898</v>
+        <v>0.07707266051680295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02071614526194493</v>
+        <v>0.02795184054825527</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1186750438.749286</v>
+        <v>1384751094.984619</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1060564839707635</v>
+        <v>0.08940143081595789</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02616749486306532</v>
+        <v>0.03298386203368743</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4094025867.168009</v>
+        <v>2883335926.323432</v>
       </c>
       <c r="F27" t="n">
-        <v>0.148428063114344</v>
+        <v>0.1117271396831368</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02422078456239771</v>
+        <v>0.02104001066799907</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>218</v>
+      </c>
+      <c r="J27" t="n">
+        <v>486</v>
+      </c>
+      <c r="K27" t="n">
+        <v>12.90849554032439</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2847126730.475136</v>
+        <v>3648402029.529174</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09844634528023408</v>
+        <v>0.1492096718453922</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04342046248610745</v>
+        <v>0.03618440102380436</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>119</v>
+      </c>
+      <c r="J28" t="n">
+        <v>487</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1456,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5191214814.62386</v>
+        <v>3660000063.357211</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1426019214989686</v>
+        <v>0.1413208910582393</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04279262743497639</v>
+        <v>0.03453740829632355</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>384</v>
+      </c>
+      <c r="J29" t="n">
+        <v>487</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2374767208.743492</v>
+        <v>2366606329.153953</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1330687463751719</v>
+        <v>0.1373490777744086</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03874307532550846</v>
+        <v>0.03743004240555402</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1498456358.275736</v>
+        <v>903746252.0127074</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1028273959400878</v>
+        <v>0.08631442247165604</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03248430315933876</v>
+        <v>0.0398251805196237</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1337846777.147114</v>
+        <v>1269594394.039869</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1140084186364642</v>
+        <v>0.07625196209765379</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02674087476855907</v>
+        <v>0.03284449579978645</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2615687511.751574</v>
+        <v>2966807857.301534</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1595333240166887</v>
+        <v>0.1413863812614902</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04737411147453045</v>
+        <v>0.03956256353894465</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1307123887.244963</v>
+        <v>1022397439.138261</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07528599458060505</v>
+        <v>0.08727462722386413</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02219800597207117</v>
+        <v>0.02175800646098684</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1344611866.201434</v>
+        <v>1301706115.228362</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1070522141142641</v>
+        <v>0.1024583523198182</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03234227040461878</v>
+        <v>0.02944886674701145</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2791844710.458316</v>
+        <v>2615262609.838026</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1513809802632981</v>
+        <v>0.1101082158209233</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02610438905735408</v>
+        <v>0.01864765562077574</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2508787182.388014</v>
+        <v>2053950963.352136</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1040914600438776</v>
+        <v>0.09227979506520548</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03584220732478648</v>
+        <v>0.03082830233445813</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1970309302.368903</v>
+        <v>1335927894.311453</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1137010017234091</v>
+        <v>0.07587231798518623</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03203813308433611</v>
+        <v>0.03098870908841813</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2071982296.567909</v>
+        <v>2160273857.972875</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1581324373372826</v>
+        <v>0.1765556697098161</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03066832247682563</v>
+        <v>0.02867828827065292</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1509446100.524956</v>
+        <v>1494379011.750017</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1148651602379633</v>
+        <v>0.1161166106136606</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05713071512873845</v>
+        <v>0.03974573670273802</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2211720195.713828</v>
+        <v>2843988860.513676</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1405798525972047</v>
+        <v>0.136954576076117</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03691117980592289</v>
+        <v>0.04066006423855313</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3430381356.754141</v>
+        <v>4202192947.284557</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1156432263129319</v>
+        <v>0.1225322423014191</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0295195458189506</v>
+        <v>0.04326870239722764</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>209</v>
+      </c>
+      <c r="J42" t="n">
+        <v>487</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1970071150.484998</v>
+        <v>2414253912.288286</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1918350503281044</v>
+        <v>0.1683644228245118</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01615172740062057</v>
+        <v>0.01719989162709123</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1559673081.210206</v>
+        <v>1451164180.342965</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09142447995588605</v>
+        <v>0.06905956871900637</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03460007315124313</v>
+        <v>0.02440163895847226</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2074502279.796285</v>
+        <v>2469648910.632794</v>
       </c>
       <c r="F45" t="n">
-        <v>0.172019067292405</v>
+        <v>0.131760772029542</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03817791956815254</v>
+        <v>0.05523941954427637</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2051,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5280658108.928076</v>
+        <v>5422275274.394199</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1189666051496894</v>
+        <v>0.1607491668782419</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0560458366550518</v>
+        <v>0.05007399786749495</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>286</v>
+      </c>
+      <c r="J46" t="n">
+        <v>487</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3997456310.852921</v>
+        <v>4932085388.657001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1944248126768506</v>
+        <v>0.1767986710207507</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05520789093052671</v>
+        <v>0.04312710806178449</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>221</v>
+      </c>
+      <c r="J47" t="n">
+        <v>487</v>
+      </c>
+      <c r="K47" t="n">
+        <v>28.32019592672238</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3204903907.236794</v>
+        <v>4382942261.746364</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06986689730808739</v>
+        <v>0.09122624228807662</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02551006887180543</v>
+        <v>0.03213906682427956</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>244</v>
+      </c>
+      <c r="J48" t="n">
+        <v>487</v>
+      </c>
+      <c r="K48" t="n">
+        <v>32.14645104257335</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1683934338.133729</v>
+        <v>1334261534.387854</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1875883747847992</v>
+        <v>0.1497436540412106</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03705747357642814</v>
+        <v>0.02723338740344636</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4218128497.328876</v>
+        <v>3663613400.907086</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1237862284779358</v>
+        <v>0.1577981371498138</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05275477484380108</v>
+        <v>0.04821290159558625</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>174</v>
+      </c>
+      <c r="J50" t="n">
+        <v>487</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1040947253.656303</v>
+        <v>1185899395.485016</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1467064153767111</v>
+        <v>0.1576069357563536</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05314362204032217</v>
+        <v>0.04627086389977035</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5137945124.579605</v>
+        <v>3837626607.570654</v>
       </c>
       <c r="F52" t="n">
-        <v>0.132682039550673</v>
+        <v>0.1284537953748233</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04991904971677631</v>
+        <v>0.0619115316367192</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>272</v>
+      </c>
+      <c r="J52" t="n">
+        <v>487</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2294,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2582165799.922376</v>
+        <v>3062277053.646787</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1945198795415441</v>
+        <v>0.1394341571102685</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02246277057826685</v>
+        <v>0.02594392380013491</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>75</v>
+      </c>
+      <c r="J53" t="n">
+        <v>487</v>
+      </c>
+      <c r="K53" t="n">
+        <v>28.48981213850863</v>
       </c>
     </row>
     <row r="54">
@@ -1942,17 +2337,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3369447004.259891</v>
+        <v>3098371688.364142</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1320724183425917</v>
+        <v>0.1172080099829843</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04934774545888776</v>
+        <v>0.04689016078087997</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>257</v>
+      </c>
+      <c r="J54" t="n">
+        <v>485</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3871251524.459529</v>
+        <v>4427336873.142097</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1385679740266983</v>
+        <v>0.1425134426949143</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02726704937978847</v>
+        <v>0.02083655657055432</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>240</v>
+      </c>
+      <c r="J55" t="n">
+        <v>487</v>
+      </c>
+      <c r="K55" t="n">
+        <v>32.60070649824339</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1358466388.208324</v>
+        <v>1240357122.548959</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1301038814003544</v>
+        <v>0.1437093565755867</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05184126862649386</v>
+        <v>0.05608815097686543</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2760986038.053287</v>
+        <v>3803749702.234275</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1612451763659879</v>
+        <v>0.1418285310574017</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02695468008695332</v>
+        <v>0.02732113346680167</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>210</v>
+      </c>
+      <c r="J57" t="n">
+        <v>487</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1210650341.718318</v>
+        <v>1392799425.489267</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1285045636680975</v>
+        <v>0.1708729898990335</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03887341893759082</v>
+        <v>0.037297285311056</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4649053823.269117</v>
+        <v>4434054474.5927</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08293363377227041</v>
+        <v>0.1162368394994061</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03109198642311942</v>
+        <v>0.04170121037938196</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>239</v>
+      </c>
+      <c r="J59" t="n">
+        <v>486</v>
+      </c>
+      <c r="K59" t="n">
+        <v>26.18076490445036</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2465847190.566522</v>
+        <v>3253027778.463378</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1864310133335426</v>
+        <v>0.1284352475708743</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02891329961473223</v>
+        <v>0.02057789557301955</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>98</v>
+      </c>
+      <c r="J60" t="n">
+        <v>483</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2829568442.024321</v>
+        <v>2829753587.425175</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1526658552859088</v>
+        <v>0.1305941309561446</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02807857857671815</v>
+        <v>0.0260277466434341</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1625217497.073479</v>
+        <v>1607332673.335166</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1473986594415883</v>
+        <v>0.1640813417615296</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03652590368058382</v>
+        <v>0.04908037674742024</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5095644254.114819</v>
+        <v>3455669304.185892</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06914602232690607</v>
+        <v>0.08656725239021579</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04701658048495574</v>
+        <v>0.03773777628856321</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>243</v>
+      </c>
+      <c r="J63" t="n">
+        <v>486</v>
+      </c>
+      <c r="K63" t="n">
+        <v>16.85667796488284</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5282905371.506733</v>
+        <v>4351958141.482126</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1279587356681139</v>
+        <v>0.1516312963489794</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02862750888262674</v>
+        <v>0.03056626073049227</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>242</v>
+      </c>
+      <c r="J64" t="n">
+        <v>487</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5750635759.204648</v>
+        <v>4567012235.712611</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1367613700909399</v>
+        <v>0.1082371998846012</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01993171247420144</v>
+        <v>0.01956554782850093</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>341</v>
+      </c>
+      <c r="J65" t="n">
+        <v>486</v>
+      </c>
+      <c r="K65" t="n">
+        <v>27.479058708206</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5490187245.672452</v>
+        <v>5602889060.8226</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1295747169306221</v>
+        <v>0.152500443198498</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0342632289046208</v>
+        <v>0.04735218703433203</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>241</v>
+      </c>
+      <c r="J66" t="n">
+        <v>487</v>
+      </c>
+      <c r="K66" t="n">
+        <v>28.51215434632984</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2963667677.620298</v>
+        <v>2643856264.028473</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07895610574138674</v>
+        <v>0.0930520426158421</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04883262318676018</v>
+        <v>0.03434025475119917</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3713712633.984406</v>
+        <v>4634386755.297976</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1503759523180196</v>
+        <v>0.1201437867854407</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04693372851893414</v>
+        <v>0.03347505780227829</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>264</v>
+      </c>
+      <c r="J68" t="n">
+        <v>487</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2430514471.519115</v>
+        <v>2022383620.972228</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1817706226754234</v>
+        <v>0.1399631293151054</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04627971321511827</v>
+        <v>0.04300191956932453</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2350162526.567826</v>
+        <v>3563678418.342661</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07271873463834697</v>
+        <v>0.0894166757844532</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04033130784259251</v>
+        <v>0.03505663884164046</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>72</v>
+      </c>
+      <c r="J70" t="n">
+        <v>487</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5655735836.36473</v>
+        <v>4954885522.863813</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1503062389289438</v>
+        <v>0.1130884615463505</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02491217421860841</v>
+        <v>0.02136344970146594</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>328</v>
+      </c>
+      <c r="J71" t="n">
+        <v>486</v>
+      </c>
+      <c r="K71" t="n">
+        <v>27.1032973270063</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1612823956.971747</v>
+        <v>1678981493.656228</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07375040744353314</v>
+        <v>0.07103771912029959</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04468956569217562</v>
+        <v>0.04191798680864658</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2568257231.136879</v>
+        <v>2167987599.288599</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08716627254919285</v>
+        <v>0.07098958417902745</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04942610323225918</v>
+        <v>0.04594612137914904</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>46</v>
+      </c>
+      <c r="J73" t="n">
+        <v>481</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3991856258.630185</v>
+        <v>3042229148.038326</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1675971155611859</v>
+        <v>0.1472242033170036</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03138980531691443</v>
+        <v>0.02175799631922117</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>144</v>
+      </c>
+      <c r="J74" t="n">
+        <v>485</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1808713310.937262</v>
+        <v>2496185889.956623</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1463561140161624</v>
+        <v>0.1165908130306953</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02658526435284224</v>
+        <v>0.02399878829609634</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5103140524.317768</v>
+        <v>5158576468.336279</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08319048607616235</v>
+        <v>0.09201092685164586</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02810515546266771</v>
+        <v>0.0318391657103085</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>233</v>
+      </c>
+      <c r="J76" t="n">
+        <v>487</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1859360439.380646</v>
+        <v>2263226056.327142</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1647979029538529</v>
+        <v>0.117828452672709</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01957874775575399</v>
+        <v>0.02500740734013783</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3511057402.787075</v>
+        <v>4197648252.409557</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1183830837847992</v>
+        <v>0.1196454318394797</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05668757627444834</v>
+        <v>0.03807630504728313</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>242</v>
+      </c>
+      <c r="J78" t="n">
+        <v>486</v>
+      </c>
+      <c r="K78" t="n">
+        <v>26.43640008784437</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1873403914.393352</v>
+        <v>1353705155.520492</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1236767964064542</v>
+        <v>0.1349267742416495</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03583683408816582</v>
+        <v>0.03568557267945546</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4470552854.559576</v>
+        <v>4962072168.441173</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06800654182427084</v>
+        <v>0.08068456502200301</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02686346242543008</v>
+        <v>0.0244491378617423</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>238</v>
+      </c>
+      <c r="J80" t="n">
+        <v>486</v>
+      </c>
+      <c r="K80" t="n">
+        <v>25.69098125762634</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4316137665.447263</v>
+        <v>4433573011.330146</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1000620087332857</v>
+        <v>0.1215160042441096</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02150284649408238</v>
+        <v>0.02456964632934601</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>228</v>
+      </c>
+      <c r="J81" t="n">
+        <v>486</v>
+      </c>
+      <c r="K81" t="n">
+        <v>27.21022521390073</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5012971723.467546</v>
+        <v>3482194520.713513</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1449743610314485</v>
+        <v>0.1567784655592381</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02226848078509483</v>
+        <v>0.0183363885704631</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
+      <c r="I82" t="n">
+        <v>319</v>
+      </c>
+      <c r="J82" t="n">
+        <v>485</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2053168304.57725</v>
+        <v>1795563968.124235</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1223845484136156</v>
+        <v>0.1493219113930118</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02898497455134354</v>
+        <v>0.03822218161399823</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2154872862.759151</v>
+        <v>1891851176.792505</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09986783217005016</v>
+        <v>0.08670128060788712</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03549958261634929</v>
+        <v>0.04602172140087046</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3636900033.579509</v>
+        <v>3437439184.524119</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1380660769526849</v>
+        <v>0.1678585680064103</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03818779402708799</v>
+        <v>0.04367680896435957</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>74</v>
+      </c>
+      <c r="J85" t="n">
+        <v>485</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2547791332.34817</v>
+        <v>2303129291.116694</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1615989124249566</v>
+        <v>0.1190685497775737</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02260982031581511</v>
+        <v>0.02172557774693904</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>954667669.9373955</v>
+        <v>1151924674.095275</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1379894637898633</v>
+        <v>0.1602312304367153</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02817383332928641</v>
+        <v>0.03833748264259663</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2838468855.387076</v>
+        <v>3406172323.330593</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1597560091992477</v>
+        <v>0.1660941792095525</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02743044935692373</v>
+        <v>0.02627365722113168</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>71</v>
+      </c>
+      <c r="J88" t="n">
+        <v>485</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3574,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2950493111.351692</v>
+        <v>2338921559.051746</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1412628967711416</v>
+        <v>0.1325107034867564</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02890040133799321</v>
+        <v>0.02583493566456192</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>29</v>
+      </c>
+      <c r="J89" t="n">
+        <v>486</v>
+      </c>
+      <c r="K89" t="n">
+        <v>22.97143962628397</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1834705775.885852</v>
+        <v>1782542881.237829</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1170030807349653</v>
+        <v>0.1104075924930745</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04562879517002375</v>
+        <v>0.03437872355128582</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1760515154.06023</v>
+        <v>1449039084.145916</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1284564581395442</v>
+        <v>0.1921292372787707</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04798083976796104</v>
+        <v>0.05166887611036416</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2708884163.408267</v>
+        <v>2835334602.485459</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08995659738685288</v>
+        <v>0.0980897010480145</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04207982377019481</v>
+        <v>0.04007912275780783</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3956898558.180263</v>
+        <v>3115180681.487428</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1149604806789339</v>
+        <v>0.08621053735609983</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03400961387518725</v>
+        <v>0.05028496667460629</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>234</v>
+      </c>
+      <c r="J93" t="n">
+        <v>486</v>
+      </c>
+      <c r="K93" t="n">
+        <v>14.61466733109716</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2383162589.398142</v>
+        <v>1623478381.863496</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1148772228381643</v>
+        <v>0.1485970017553671</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0428588248074932</v>
+        <v>0.03636397854247049</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2307501892.410561</v>
+        <v>2795888559.216956</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1087781746953559</v>
+        <v>0.1104487101722924</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0483584321815884</v>
+        <v>0.03327485124537987</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2025013752.999706</v>
+        <v>1535205605.058267</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1181369416661444</v>
+        <v>0.1279868999284988</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02978779644308286</v>
+        <v>0.04351621095122249</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3749104369.172695</v>
+        <v>4404418019.001558</v>
       </c>
       <c r="F97" t="n">
-        <v>0.165042531777415</v>
+        <v>0.1662750498166974</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02573382092919401</v>
+        <v>0.02889539513679147</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>254</v>
+      </c>
+      <c r="J97" t="n">
+        <v>486</v>
+      </c>
+      <c r="K97" t="n">
+        <v>27.90521634038856</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2943962985.302754</v>
+        <v>3174402959.184554</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1220496965746265</v>
+        <v>0.1137990833319928</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02956354318632291</v>
+        <v>0.0275529881914408</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>124</v>
+      </c>
+      <c r="J98" t="n">
+        <v>480</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2530146113.319936</v>
+        <v>2850673377.353753</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1416555579444523</v>
+        <v>0.1133871261797672</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02219530059377585</v>
+        <v>0.0225256365625941</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3031471955.215277</v>
+        <v>4267524095.645602</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1634020232771064</v>
+        <v>0.1448070006009774</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02563268878676341</v>
+        <v>0.01897933796400604</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>227</v>
+      </c>
+      <c r="J100" t="n">
+        <v>487</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2177771277.621717</v>
+        <v>3226608617.33338</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2068505672464331</v>
+        <v>0.2124656200666915</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03575050709560953</v>
+        <v>0.03733896648196525</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
